--- a/src/main/java/TestData/TestData.xlsx
+++ b/src/main/java/TestData/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\eclipse-workspace\com.qa.opencart\src\main\java\com\qa\opencart\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\eclipse-workspace\POMHybridFramework\src\main\java\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFDC6FE-7287-420C-8F77-959CFB9F82FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A977AB6-522B-4D80-BA44-B672EC50D5E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -102,19 +102,19 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>8564587@abc.com</t>
-  </si>
-  <si>
-    <t>suni53@abc.com</t>
-  </si>
-  <si>
-    <t>gpiertr@abc.com</t>
-  </si>
-  <si>
-    <t>rajakkk@abc.com</t>
-  </si>
-  <si>
-    <t>rahi@abc.com</t>
+    <t>8564587@bc.com</t>
+  </si>
+  <si>
+    <t>suni53@bc.com</t>
+  </si>
+  <si>
+    <t>gpiertr@bc.com</t>
+  </si>
+  <si>
+    <t>rajakkk@bc.com</t>
+  </si>
+  <si>
+    <t>rahi@bc.com</t>
   </si>
 </sst>
 </file>
@@ -480,7 +480,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
